--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_EnCQR-LSTM.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_EnCQR-LSTM.xlsx
@@ -441,25 +441,25 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>88.81964715780289</v>
+        <v>87.44388944297727</v>
       </c>
       <c r="C2">
-        <v>98.4399517503974</v>
+        <v>95.3285435439691</v>
       </c>
       <c r="D2">
-        <v>98.86325645876816</v>
+        <v>98.88416789810593</v>
       </c>
       <c r="E2">
-        <v>98.55834528265395</v>
+        <v>98.71753349656692</v>
       </c>
       <c r="F2">
-        <v>98.22538905514232</v>
+        <v>98.35765789288109</v>
       </c>
       <c r="G2">
-        <v>97.59065347000121</v>
+        <v>97.56487881001668</v>
       </c>
       <c r="H2">
-        <v>96.30940093844657</v>
+        <v>96.00027755246491</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -467,25 +467,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>84.73936140172584</v>
+        <v>81.68283213612776</v>
       </c>
       <c r="C3">
-        <v>98.33641742886719</v>
+        <v>97.88064996277492</v>
       </c>
       <c r="D3">
-        <v>98.65654415065015</v>
+        <v>99.24955173732829</v>
       </c>
       <c r="E3">
-        <v>98.5119945164721</v>
+        <v>98.64166949886794</v>
       </c>
       <c r="F3">
-        <v>98.26688821341509</v>
+        <v>98.32777591766109</v>
       </c>
       <c r="G3">
-        <v>97.47981985981021</v>
+        <v>97.68121314531946</v>
       </c>
       <c r="H3">
-        <v>96.42639659995507</v>
+        <v>96.34329352983748</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -493,25 +493,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>85.77393777500292</v>
+        <v>86.28599674047305</v>
       </c>
       <c r="C4">
-        <v>98.34798997984922</v>
+        <v>95.51137830436474</v>
       </c>
       <c r="D4">
-        <v>98.46983203591769</v>
+        <v>99.0021226259057</v>
       </c>
       <c r="E4">
-        <v>98.63220710968423</v>
+        <v>98.49935476787958</v>
       </c>
       <c r="F4">
-        <v>98.20410462307356</v>
+        <v>98.35125543318377</v>
       </c>
       <c r="G4">
-        <v>97.59528092444489</v>
+        <v>97.5526582025585</v>
       </c>
       <c r="H4">
-        <v>96.4084961127394</v>
+        <v>96.29691818992248</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -519,25 +519,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>86.37096369539552</v>
+        <v>84.88664423881967</v>
       </c>
       <c r="C5">
-        <v>98.78622165586563</v>
+        <v>94.4097266602371</v>
       </c>
       <c r="D5">
-        <v>98.73905723290331</v>
+        <v>98.86391237055639</v>
       </c>
       <c r="E5">
-        <v>98.59643203652591</v>
+        <v>98.62439514554762</v>
       </c>
       <c r="F5">
-        <v>98.21649469884889</v>
+        <v>98.266351773633</v>
       </c>
       <c r="G5">
-        <v>97.54089594490159</v>
+        <v>97.39828863319117</v>
       </c>
       <c r="H5">
-        <v>96.39153516939211</v>
+        <v>96.24553532116798</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -545,25 +545,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>85.54519102753505</v>
+        <v>85.47579476776683</v>
       </c>
       <c r="C6">
-        <v>98.56152989429563</v>
+        <v>95.43891241958104</v>
       </c>
       <c r="D6">
-        <v>98.83198855293976</v>
+        <v>99.15377616893278</v>
       </c>
       <c r="E6">
-        <v>98.43799441468566</v>
+        <v>98.35709340975923</v>
       </c>
       <c r="F6">
-        <v>97.97153946926976</v>
+        <v>98.26008561321711</v>
       </c>
       <c r="G6">
-        <v>97.6061773465597</v>
+        <v>97.6574570268988</v>
       </c>
       <c r="H6">
-        <v>96.08658448824784</v>
+        <v>96.17813602754524</v>
       </c>
     </row>
   </sheetData>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_EnCQR-LSTM.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_EnCQR-LSTM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>d=1</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>d=5</t>
+  </si>
+  <si>
+    <t>d=6</t>
   </si>
   <si>
     <t>d=7</t>
@@ -407,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,10 +438,13 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>87.44388944297727</v>
@@ -456,15 +462,18 @@
         <v>98.35765789288109</v>
       </c>
       <c r="G2">
+        <v>97.80141191575052</v>
+      </c>
+      <c r="H2">
         <v>97.56487881001668</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>96.00027755246491</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>81.68283213612776</v>
@@ -482,15 +491,18 @@
         <v>98.32777591766109</v>
       </c>
       <c r="G3">
+        <v>98.00978560161275</v>
+      </c>
+      <c r="H3">
         <v>97.68121314531946</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>96.34329352983748</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>86.28599674047305</v>
@@ -508,15 +520,18 @@
         <v>98.35125543318377</v>
       </c>
       <c r="G4">
+        <v>97.99836373005171</v>
+      </c>
+      <c r="H4">
         <v>97.5526582025585</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>96.29691818992248</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>84.88664423881967</v>
@@ -534,15 +549,18 @@
         <v>98.266351773633</v>
       </c>
       <c r="G5">
+        <v>97.91808310958237</v>
+      </c>
+      <c r="H5">
         <v>97.39828863319117</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>96.24553532116798</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>85.47579476776683</v>
@@ -560,9 +578,12 @@
         <v>98.26008561321711</v>
       </c>
       <c r="G6">
+        <v>98.0118366189915</v>
+      </c>
+      <c r="H6">
         <v>97.6574570268988</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>96.17813602754524</v>
       </c>
     </row>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_EnCQR-LSTM.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_EnCQR-LSTM.xlsx
@@ -447,28 +447,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>87.44388944297727</v>
+        <v>88.69904661368808</v>
       </c>
       <c r="C2">
-        <v>95.3285435439691</v>
+        <v>96.97591407789436</v>
       </c>
       <c r="D2">
-        <v>98.88416789810593</v>
+        <v>98.71218898370287</v>
       </c>
       <c r="E2">
-        <v>98.71753349656692</v>
+        <v>98.59262851751754</v>
       </c>
       <c r="F2">
-        <v>98.35765789288109</v>
+        <v>98.35568571259847</v>
       </c>
       <c r="G2">
-        <v>97.80141191575052</v>
+        <v>97.56738495387086</v>
       </c>
       <c r="H2">
-        <v>97.56487881001668</v>
+        <v>97.32725144807199</v>
       </c>
       <c r="I2">
-        <v>96.00027755246491</v>
+        <v>96.13732136780457</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -476,28 +476,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>81.68283213612776</v>
+        <v>81.90962221409752</v>
       </c>
       <c r="C3">
-        <v>97.88064996277492</v>
+        <v>97.7827893731686</v>
       </c>
       <c r="D3">
-        <v>99.24955173732829</v>
+        <v>99.20575852297434</v>
       </c>
       <c r="E3">
-        <v>98.64166949886794</v>
+        <v>98.67835946139346</v>
       </c>
       <c r="F3">
-        <v>98.32777591766109</v>
+        <v>98.53736482272471</v>
       </c>
       <c r="G3">
-        <v>98.00978560161275</v>
+        <v>97.91486804929083</v>
       </c>
       <c r="H3">
-        <v>97.68121314531946</v>
+        <v>97.53002160587134</v>
       </c>
       <c r="I3">
-        <v>96.34329352983748</v>
+        <v>95.83391430103309</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -505,28 +505,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>86.28599674047305</v>
+        <v>85.36702098740928</v>
       </c>
       <c r="C4">
-        <v>95.51137830436474</v>
+        <v>96.13968860130888</v>
       </c>
       <c r="D4">
-        <v>99.0021226259057</v>
+        <v>99.01251692958789</v>
       </c>
       <c r="E4">
-        <v>98.49935476787958</v>
+        <v>98.40882978140412</v>
       </c>
       <c r="F4">
-        <v>98.35125543318377</v>
+        <v>98.46778682113062</v>
       </c>
       <c r="G4">
-        <v>97.99836373005171</v>
+        <v>97.60273362047018</v>
       </c>
       <c r="H4">
-        <v>97.5526582025585</v>
+        <v>97.70950222766976</v>
       </c>
       <c r="I4">
-        <v>96.29691818992248</v>
+        <v>95.95859431478002</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -534,28 +534,28 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>84.88664423881967</v>
+        <v>87.24192865880424</v>
       </c>
       <c r="C5">
-        <v>94.4097266602371</v>
+        <v>95.61764349722598</v>
       </c>
       <c r="D5">
-        <v>98.86391237055639</v>
+        <v>98.5590893269721</v>
       </c>
       <c r="E5">
-        <v>98.62439514554762</v>
+        <v>98.52149474957137</v>
       </c>
       <c r="F5">
-        <v>98.266351773633</v>
+        <v>98.35283057838525</v>
       </c>
       <c r="G5">
-        <v>97.91808310958237</v>
+        <v>97.93711659961268</v>
       </c>
       <c r="H5">
-        <v>97.39828863319117</v>
+        <v>97.4541398737331</v>
       </c>
       <c r="I5">
-        <v>96.24553532116798</v>
+        <v>96.1240712166569</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -563,28 +563,28 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>85.47579476776683</v>
+        <v>87.35820418963948</v>
       </c>
       <c r="C6">
-        <v>95.43891241958104</v>
+        <v>96.62877182165764</v>
       </c>
       <c r="D6">
-        <v>99.15377616893278</v>
+        <v>99.18456649274428</v>
       </c>
       <c r="E6">
-        <v>98.35709340975923</v>
+        <v>98.83475658541579</v>
       </c>
       <c r="F6">
-        <v>98.26008561321711</v>
+        <v>98.39246238833009</v>
       </c>
       <c r="G6">
-        <v>98.0118366189915</v>
+        <v>98.14354718080673</v>
       </c>
       <c r="H6">
-        <v>97.6574570268988</v>
+        <v>97.34442529919663</v>
       </c>
       <c r="I6">
-        <v>96.17813602754524</v>
+        <v>96.34407731302136</v>
       </c>
     </row>
   </sheetData>
